--- a/doc/log/log_201608040113ybl.xlsx
+++ b/doc/log/log_201608040113ybl.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\WorkSpace\SchoolReserve\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309B889-34EF-4A68-9A9A-6DEBB49DD058}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,57 +22,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册并登陆github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载小乌龟并安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pull失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次尝试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新创建文件夹，重新创库并pull，成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册github</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建组织</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入组织</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建仓库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉pull与push</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git到远程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加日志文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建实体类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递模块创建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +108,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,20 +137,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,9 +252,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,6 +304,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,80 +497,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43191</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43265</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43271</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43284</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -485,12 +711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,12 +724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040113ybl.xlsx
+++ b/doc/log/log_201608040113ybl.xlsx
@@ -3,26 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\WorkSpace\SchoolReserve\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309B889-34EF-4A68-9A9A-6DEBB49DD058}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{BE7F395D-F216-4FD9-BF54-638CE8C95F30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -72,16 +68,72 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>创建实体类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13:00-17:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>快递模块创建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j2ee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求分析书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dao/main/dao/courier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块创建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao/main/domain/courier类的属性定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dao/test/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对老师定义函数的继承</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -137,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -159,7 +212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,174 +551,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.3984375" customWidth="1"/>
     <col min="3" max="3" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43191</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43237</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>43265</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43271</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>43271</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43276</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43284</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43284</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43284</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43284</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43284</v>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43285</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040113ybl.xlsx
+++ b/doc/log/log_201608040113ybl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{BE7F395D-F216-4FD9-BF54-638CE8C95F30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{8067FDD0-FF8A-4EFA-B3CE-F5A2DA3D0255}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="5232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -133,6 +133,171 @@
       </rPr>
       <t>对老师定义函数的继承</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承函数出错，导致只测试数据，未输入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改继承函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>service/main/admin/courier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口创建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>service/main/test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试类数据输入数据库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的创建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件出错修改</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查找原因</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常访问页面但是没有视图，预估</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层出错</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功运行快递模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +333,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,30 +361,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -553,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,81 +738,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43191</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
@@ -647,12 +820,12 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
@@ -660,12 +833,12 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
@@ -673,14 +846,14 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43237</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
@@ -688,14 +861,14 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43265</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
@@ -703,15 +876,15 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43271</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="7"/>
@@ -735,14 +908,20 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43284</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -752,14 +931,20 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43284</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -769,7 +954,10 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -778,14 +966,20 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43284</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -795,7 +989,10 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -804,7 +1001,10 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -824,12 +1024,36 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -839,30 +1063,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
